--- a/Integration.xlsx
+++ b/Integration.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Transitus14\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7E84F60-CDB0-4A33-A23A-A029875D3EB7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DCC9CC2C-ACB7-49EB-9A98-4B3638827216}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
